--- a/2007-2023_ Hesap-Toplamlar/010_ 2016-23 BANKA/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/010_ 2016-23 BANKA/010_ 2016-2023 bankadanKira.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\010_ 2016-23 BANKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE31827F-EC10-4717-B27B-0A33B14ECA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C617964-94E4-4AF1-A13D-24E8BB38C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
+    <workbookView xWindow="12780" yWindow="645" windowWidth="16065" windowHeight="14835" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +226,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +266,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
-  <dimension ref="A3:H31"/>
+  <dimension ref="A3:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,19 +664,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>66927</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <v>6000</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -668,66 +687,6 @@
       </c>
       <c r="H6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>382789</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44000</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>382789</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10300</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,230 +694,248 @@
         <v>382789</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4800</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>382789</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
-        <v>9000</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="8">
+        <v>44000</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>382789</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4800</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>382789</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5">
-        <v>500</v>
+      <c r="E12" s="9">
+        <v>1800</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>382789</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5">
-        <v>1800</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>382789</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3300</v>
+      <c r="E14" s="9">
+        <v>3000</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>382789</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="5">
+        <v>500</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1268616</v>
+        <v>382789</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2">
-        <v>80000</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10300</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>382789</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10">
+        <v>9000</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
+      <c r="A19" s="6">
+        <v>382789</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3300</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="A23">
+        <v>1268616</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -967,6 +944,40 @@
       <c r="E25" s="2"/>
       <c r="G25" s="3"/>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -974,11 +985,18 @@
       <c r="E31" s="2"/>
       <c r="G31" s="3"/>
     </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H33">
-    <sortCondition ref="A3:A33"/>
-    <sortCondition ref="B3:B33"/>
-    <sortCondition ref="E3:E33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H39">
+    <sortCondition ref="A3:A39"/>
+    <sortCondition ref="B3:B39"/>
+    <sortCondition ref="E3:E39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
